--- a/src/api/files/database.xlsx
+++ b/src/api/files/database.xlsx
@@ -1,179 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Nodejs\miniproject-nodejs\src\api\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEDBB43-7700-43A2-A699-CDACDD1B1B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>avatar</t>
-  </si>
-  <si>
-    <t>michael.lawson@reqres.in</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Lawson</t>
-  </si>
-  <si>
-    <t>https://reqres.in/img/faces/7-image.jpg</t>
-  </si>
-  <si>
-    <t>lindsay.ferguson@reqres.in</t>
-  </si>
-  <si>
-    <t>Lindsay</t>
-  </si>
-  <si>
-    <t>Ferguson</t>
-  </si>
-  <si>
-    <t>https://reqres.in/img/faces/8-image.jpg</t>
-  </si>
-  <si>
-    <t>janet.weaver@reqres.in</t>
-  </si>
-  <si>
-    <t>Janet</t>
-  </si>
-  <si>
-    <t>Weaver</t>
-  </si>
-  <si>
-    <t>https://reqres.in/img/faces/2-image.jpg</t>
-  </si>
-  <si>
-    <t>emma.wong@reqres.in</t>
-  </si>
-  <si>
-    <t>Emma</t>
-  </si>
-  <si>
-    <t>Wong</t>
-  </si>
-  <si>
-    <t>https://reqres.in/img/faces/3-image.jpg</t>
-  </si>
-  <si>
-    <t>eve.holt@reqres.in</t>
-  </si>
-  <si>
-    <t>Eve</t>
-  </si>
-  <si>
-    <t>Holt</t>
-  </si>
-  <si>
-    <t>https://reqres.in/img/faces/4-image.jpg</t>
-  </si>
-  <si>
-    <t>charles.morris@reqres.in</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Morris</t>
-  </si>
-  <si>
-    <t>https://reqres.in/img/faces/5-image.jpg</t>
-  </si>
-  <si>
-    <t>tracey.ramos@reqres.in</t>
-  </si>
-  <si>
-    <t>Tracey</t>
-  </si>
-  <si>
-    <t>Ramos</t>
-  </si>
-  <si>
-    <t>https://reqres.in/img/faces/6-image.jpg</t>
-  </si>
-  <si>
-    <t>tobias.funke@reqres.in</t>
-  </si>
-  <si>
-    <t>Tobias</t>
-  </si>
-  <si>
-    <t>Funke</t>
-  </si>
-  <si>
-    <t>https://reqres.in/img/faces/9-image.jpg</t>
-  </si>
-  <si>
-    <t>byron.fields@reqres.in</t>
-  </si>
-  <si>
-    <t>Byron</t>
-  </si>
-  <si>
-    <t>Fields</t>
-  </si>
-  <si>
-    <t>https://reqres.in/img/faces/10-image.jpg</t>
-  </si>
-  <si>
-    <t>george.edwards@reqres.in</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Edwards</t>
-  </si>
-  <si>
-    <t>https://reqres.in/img/faces/11-image.jpg</t>
-  </si>
-  <si>
-    <t>rachel.howell@reqres.in</t>
-  </si>
-  <si>
-    <t>Rachel</t>
-  </si>
-  <si>
-    <t>Howell</t>
-  </si>
-  <si>
-    <t>https://reqres.in/img/faces/12-image.jpg</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,14 +50,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -542,223 +374,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>email</v>
+      </c>
+      <c r="C1" t="str">
+        <v>first_name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>last_name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>avatar</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" t="str">
+        <v>michael.lawson@reqres.in</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Michael</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Lawson</v>
+      </c>
+      <c r="E2" t="str">
+        <v>https://reqres.in/img/faces/7-image.jpg</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" t="str">
+        <v>lindsay.ferguson@reqres.in</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Lindsay</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Ferguson</v>
+      </c>
+      <c r="E3" t="str">
+        <v>https://reqres.in/img/faces/8-image.jpg</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" t="str">
+        <v>janet.weaver@reqres.in</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Janet</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Weaver</v>
+      </c>
+      <c r="E4" t="str">
+        <v>https://reqres.in/img/faces/2-image.jpg</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" t="str">
+        <v>emma.wong@reqres.in</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Emma</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Wong</v>
+      </c>
+      <c r="E5" t="str">
+        <v>https://reqres.in/img/faces/3-image.jpg</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" t="str">
+        <v>eve.holt@reqres.in</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Eve</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Holt</v>
+      </c>
+      <c r="E6" t="str">
+        <v>https://reqres.in/img/faces/4-image.jpg</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" t="str">
+        <v>charles.morris@reqres.in</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Charles</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Morris</v>
+      </c>
+      <c r="E7" t="str">
+        <v>https://reqres.in/img/faces/5-image.jpg</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" t="str">
+        <v>tracey.ramos@reqres.in</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Tracey</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Ramos</v>
+      </c>
+      <c r="E8" t="str">
+        <v>https://reqres.in/img/faces/6-image.jpg</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" t="str">
+        <v>tobias.funke@reqres.in</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Tobias</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Funke</v>
+      </c>
+      <c r="E9" t="str">
+        <v>https://reqres.in/img/faces/9-image.jpg</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" t="str">
+        <v>byron.fields@reqres.in</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Byron</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Fields</v>
+      </c>
+      <c r="E10" t="str">
+        <v>https://reqres.in/img/faces/10-image.jpg</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" t="str">
+        <v>george.edwards@reqres.in</v>
+      </c>
+      <c r="C11" t="str">
+        <v>George</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Edwards</v>
+      </c>
+      <c r="E11" t="str">
+        <v>https://reqres.in/img/faces/11-image.jpg</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
+      <c r="B12" t="str">
+        <v>rachel.howell@reqres.in</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Rachel</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Howell</v>
+      </c>
+      <c r="E12" t="str">
+        <v>https://reqres.in/img/faces/12-image.jpg</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="str">
+        <v>rizkysampratama@gmail.com</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Rizky</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Sam</v>
+      </c>
+      <c r="E13" t="str">
+        <v>https://reqres.in/img/faces/10-image.jpg</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E2 B3:E12" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/api/files/database.xlsx
+++ b/src/api/files/database.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -601,9 +601,26 @@
         <v>https://reqres.in/img/faces/10-image.jpg</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14">
+        <v>99</v>
+      </c>
+      <c r="B14" t="str">
+        <v>sam@gmail.com</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Sam</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Pratama</v>
+      </c>
+      <c r="E14" t="str">
+        <v>https://reqres.in/img/faces/11-image.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E14"/>
   </ignoredErrors>
 </worksheet>
 </file>